--- a/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-RO125678.xlsx
+++ b/GenerateYearlyReportPerformer/Data/Temp/Yearly-Report-2020-RO125678.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>InvoiceNumber</x:t>
   </x:si>
@@ -22,319 +22,334 @@
     <x:t>Item</x:t>
   </x:si>
   <x:si>
+    <x:t>Amount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tax</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Currency</x:t>
+  </x:si>
+  <x:si>
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>Amount</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tax</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Currency</x:t>
-  </x:si>
-  <x:si>
-    <x:t>195524</x:t>
+    <x:t>923324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56552.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>USD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>531317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beverages and Catering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>216338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43267.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>259606</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EUR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>582730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37734.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>967862</x:t>
+  </x:si>
+  <x:si>
+    <x:t>136444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27288.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>172300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34460</x:t>
+  </x:si>
+  <x:si>
+    <x:t>206760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-02-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>457550</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-03-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93996</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18799.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>954961</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-03-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42955.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>257735</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>764858</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Concierge Services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125964</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25192.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>297642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29643.8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>177863</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>703487</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17317</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103902</x:t>
+    <x:t>30256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6051.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36307.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>685229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>241359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48271.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>289631</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-03-21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>914707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45663.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>273982</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218474</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23737</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4747.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28484.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37605.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>225634</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>808313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16860.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-07-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>877030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51133.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>306799</x:t>
   </x:si>
   <x:si>
     <x:t>RON</x:t>
   </x:si>
   <x:si>
-    <x:t>900098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88321</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17664.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>649772</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>294286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58857.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>353143</x:t>
-  </x:si>
-  <x:si>
-    <x:t>315448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18702</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>192157</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38431.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230588</x:t>
-  </x:si>
-  <x:si>
-    <x:t>575225</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6222.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37335.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>919319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-07-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39021</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7804.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46825.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>602313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-08-19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>296300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59260</x:t>
-  </x:si>
-  <x:si>
-    <x:t>355560</x:t>
-  </x:si>
-  <x:si>
-    <x:t>348096</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122795</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>147354</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523644</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-09-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>277512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55502.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>333014</x:t>
-  </x:si>
-  <x:si>
-    <x:t>581723</x:t>
+    <x:t>2017-08-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54030</x:t>
   </x:si>
   <x:si>
     <x:t>2017-09-02</x:t>
   </x:si>
   <x:si>
-    <x:t>5440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>539777</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IT Support</x:t>
+    <x:t>515773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>189749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37949.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>227699</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>628353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21310.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127865</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>354464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58792.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>352753</x:t>
   </x:si>
   <x:si>
     <x:t>2017-10-09</x:t>
   </x:si>
   <x:si>
-    <x:t>176751</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35350.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>212101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>937303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>203363</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40672.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>244036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>984309</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-12-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>199426</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39885.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>239311</x:t>
+    <x:t>915074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242780</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48556</x:t>
+  </x:si>
+  <x:si>
+    <x:t>291336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>879828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>182531</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36506.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>219037</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>852497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15084</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3016.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18100.8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-12-23</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -685,7 +700,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G19"/>
+  <x:dimension ref="A1:G20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -777,10 +792,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -788,99 +803,99 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="D6" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="E6" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
+      <x:c r="E7" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F7" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>35</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>52</x:v>
@@ -892,10 +907,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
@@ -903,7 +918,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>57</x:v>
@@ -915,10 +930,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
@@ -926,7 +941,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>62</x:v>
@@ -938,10 +953,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
@@ -949,7 +964,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
         <x:v>67</x:v>
@@ -961,10 +976,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
@@ -972,7 +987,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>72</x:v>
@@ -987,84 +1002,84 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:7">
       <x:c r="A15" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="F15" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7">
       <x:c r="A16" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7">
       <x:c r="A17" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>93</x:v>
@@ -1076,10 +1091,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7">
@@ -1087,7 +1102,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>98</x:v>
@@ -1099,10 +1114,10 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
         <x:v>101</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:7">
@@ -1110,7 +1125,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>103</x:v>
@@ -1122,10 +1137,33 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>13</x:v>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>111</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
